--- a/testfolder/2058-002-298 MLR Baseline.stats.xlsx
+++ b/testfolder/2058-002-298 MLR Baseline.stats.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">02</t>
   </si>
   <si>
-    <t xml:space="preserve">mar-mié</t>
+    <t xml:space="preserve">Tue-Wed</t>
   </si>
   <si>
     <t xml:space="preserve">W</t>
@@ -73,25 +73,25 @@
     <t xml:space="preserve">Dia</t>
   </si>
   <si>
-    <t xml:space="preserve">mié</t>
+    <t xml:space="preserve">Wed</t>
   </si>
   <si>
     <t xml:space="preserve">03</t>
   </si>
   <si>
-    <t xml:space="preserve">mié-jue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jue</t>
+    <t xml:space="preserve">Wed-Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu</t>
   </si>
   <si>
     <t xml:space="preserve">04</t>
   </si>
   <si>
-    <t xml:space="preserve">jue-vie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vie</t>
+    <t xml:space="preserve">Thu-Fri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fri</t>
   </si>
   <si>
     <t xml:space="preserve">drop</t>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">durWmax_24</t>
   </si>
   <si>
-    <t xml:space="preserve">mié &gt; mié-jue</t>
+    <t xml:space="preserve">Wed &gt; Wed-Thu</t>
   </si>
   <si>
     <t xml:space="preserve">02:05</t>
@@ -529,7 +529,7 @@
     <t xml:space="preserve">10:19</t>
   </si>
   <si>
-    <t xml:space="preserve">jue &gt; jue-vie</t>
+    <t xml:space="preserve">Thu &gt; Thu-Fri</t>
   </si>
   <si>
     <t xml:space="preserve">15:47</t>
@@ -538,16 +538,16 @@
     <t xml:space="preserve">21:04</t>
   </si>
   <si>
-    <t xml:space="preserve">mar-mié &gt; mié</t>
+    <t xml:space="preserve">Tue-Wed &gt; Wed</t>
   </si>
   <si>
     <t xml:space="preserve">01:06</t>
   </si>
   <si>
-    <t xml:space="preserve">mié-jue &gt; jue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jue-vie &gt; vie</t>
+    <t xml:space="preserve">Wed-Thu &gt; Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu-Fri &gt; Fri</t>
   </si>
   <si>
     <t xml:space="preserve">06:55</t>
@@ -904,7 +904,7 @@
     <col min="6" max="6" width="7.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="7.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="6.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="8.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="7.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -945,16 +945,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>41849.9576388889</v>
+        <v>41850.0458333333</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -963,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>22.983</v>
+        <v>1.1</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -977,16 +977,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>41850.0423611111</v>
+        <v>41850.1638888889</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>130.6</v>
+        <v>101.4</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -995,13 +995,13 @@
         <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>1.017</v>
+        <v>3.933</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1009,16 +1009,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>41850.0458333333</v>
+        <v>41850.1756944444</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>3.2</v>
+        <v>6.9</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1027,13 +1027,13 @@
         <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>1.1</v>
+        <v>4.217</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1041,16 +1041,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>41850.1638888889</v>
+        <v>41850.1923611111</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1059,13 +1059,13 @@
         <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>3.933</v>
+        <v>4.617</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1073,16 +1073,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>41850.1756944444</v>
+        <v>41850.2604166667</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1091,13 +1091,13 @@
         <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>4.217</v>
+        <v>6.25</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1105,16 +1105,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>41850.1923611111</v>
+        <v>41850.3069444444</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1123,13 +1123,13 @@
         <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>4.617</v>
+        <v>7.367</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1137,16 +1137,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>41850.2604166667</v>
+        <v>41850.3104166667</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>7.1</v>
+        <v>2.1</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1155,13 +1155,13 @@
         <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>6.25</v>
+        <v>7.45</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1169,16 +1169,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>41850.3069444444</v>
+        <v>41850.3152777778</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>179.2</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1187,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>7.367</v>
+        <v>7.567</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -1201,16 +1201,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>41850.3104166667</v>
+        <v>41850.3222222222</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1</v>
+        <v>15.8</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1219,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>7.45</v>
+        <v>7.733</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -1233,16 +1233,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>41850.3152777778</v>
+        <v>41850.3319444444</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>179.2</v>
+        <v>149.1</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1251,7 +1251,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>7.567</v>
+        <v>7.967</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1265,16 +1265,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>41850.3222222222</v>
+        <v>41850.3375</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
-        <v>15.8</v>
+        <v>3.2</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1283,13 +1283,13 @@
         <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>7.733</v>
+        <v>8.1</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1297,16 +1297,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>41850.3319444444</v>
+        <v>41850.3777777778</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>149.1</v>
+        <v>38.6</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1315,13 +1315,13 @@
         <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>7.967</v>
+        <v>9.067</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1329,16 +1329,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>41850.3375</v>
+        <v>41850.3826388889</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1347,13 +1347,13 @@
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>8.1</v>
+        <v>9.183</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1361,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>41850.3777777778</v>
+        <v>41850.3895833333</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1370,7 +1370,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>38.6</v>
+        <v>76.7</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1379,7 +1379,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>9.067</v>
+        <v>9.35</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1393,16 +1393,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>41850.3826388889</v>
+        <v>41850.3944444444</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1411,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>9.183</v>
+        <v>9.467</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
@@ -1425,16 +1425,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>41850.3895833333</v>
+        <v>41850.4104166667</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>76.7</v>
+        <v>72.2</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1443,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>9.35</v>
+        <v>9.85</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -1457,16 +1457,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>41850.3944444444</v>
+        <v>41850.4194444444</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>15.8</v>
+        <v>2.5</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1475,13 +1475,13 @@
         <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>9.467</v>
+        <v>10.067</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1489,31 +1489,31 @@
         <v>10</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>41850.4104166667</v>
+        <v>41850.4298611111</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="E19" t="n">
-        <v>72.2</v>
+        <v>199.2</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>9.85</v>
+        <v>10.317</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1521,31 +1521,31 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>41850.4194444444</v>
+        <v>41850.5520833333</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20" t="n">
-        <v>10.067</v>
+        <v>13.25</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -1553,16 +1553,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>41850.4298611111</v>
+        <v>41850.5555555556</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="E21" t="n">
-        <v>199.2</v>
+        <v>260.6</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1571,13 +1571,13 @@
         <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>10.317</v>
+        <v>13.333</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1585,7 +1585,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>41850.5520833333</v>
+        <v>41850.5826388889</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1594,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1603,7 +1603,7 @@
         <v>13</v>
       </c>
       <c r="H22" t="n">
-        <v>13.25</v>
+        <v>13.983</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -1617,16 +1617,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>41850.5555555556</v>
+        <v>41850.5861111111</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>260.6</v>
+        <v>134.4</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1635,13 +1635,13 @@
         <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>13.333</v>
+        <v>14.067</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1649,16 +1649,16 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>41850.5826388889</v>
+        <v>41850.5930555556</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>11.2</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -1667,13 +1667,13 @@
         <v>13</v>
       </c>
       <c r="H24" t="n">
-        <v>13.983</v>
+        <v>14.233</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -1681,16 +1681,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>41850.5861111111</v>
+        <v>41850.6006944444</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
-        <v>134.4</v>
+        <v>309.3</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1699,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="H25" t="n">
-        <v>14.067</v>
+        <v>14.417</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1713,16 +1713,16 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>41850.5930555556</v>
+        <v>41850.6458333333</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="E26" t="n">
-        <v>11.2</v>
+        <v>4.7</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -1731,13 +1731,13 @@
         <v>13</v>
       </c>
       <c r="H26" t="n">
-        <v>14.233</v>
+        <v>15.5</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
       </c>
       <c r="J26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -1745,16 +1745,16 @@
         <v>10</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>41850.6006944444</v>
+        <v>41850.7194444444</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>309.3</v>
+        <v>173.9</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1763,13 +1763,13 @@
         <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>14.417</v>
+        <v>17.267</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
       </c>
       <c r="J27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1777,16 +1777,16 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>41850.6458333333</v>
+        <v>41850.7284722222</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -1795,13 +1795,13 @@
         <v>13</v>
       </c>
       <c r="H28" t="n">
-        <v>15.5</v>
+        <v>17.483</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
       </c>
       <c r="J28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1809,16 +1809,16 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>41850.7194444444</v>
+        <v>41850.7409722222</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E29" t="n">
-        <v>173.9</v>
+        <v>118.4</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -1827,7 +1827,7 @@
         <v>13</v>
       </c>
       <c r="H29" t="n">
-        <v>17.267</v>
+        <v>17.783</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -1841,16 +1841,16 @@
         <v>10</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>41850.7284722222</v>
+        <v>41850.7590277778</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -1859,13 +1859,13 @@
         <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>17.483</v>
+        <v>18.217</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
       </c>
       <c r="J30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1873,16 +1873,16 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>41850.7409722222</v>
+        <v>41850.7861111111</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
-        <v>118.4</v>
+        <v>171.5</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -1891,13 +1891,13 @@
         <v>13</v>
       </c>
       <c r="H31" t="n">
-        <v>17.783</v>
+        <v>18.867</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
       </c>
       <c r="J31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -1905,16 +1905,16 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>41850.7590277778</v>
+        <v>41850.8291666667</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>7.3</v>
+        <v>16.4</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -1923,13 +1923,13 @@
         <v>13</v>
       </c>
       <c r="H32" t="n">
-        <v>18.217</v>
+        <v>19.9</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
       </c>
       <c r="J32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -1937,16 +1937,16 @@
         <v>10</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>41850.7861111111</v>
+        <v>41850.8388888889</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E33" t="n">
-        <v>171.5</v>
+        <v>103.3</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -1955,13 +1955,13 @@
         <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>18.867</v>
+        <v>20.133</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
       </c>
       <c r="J33" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1969,16 +1969,16 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>41850.8291666667</v>
+        <v>41850.8604166667</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E34" t="n">
-        <v>16.4</v>
+        <v>1.2</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -1987,13 +1987,13 @@
         <v>13</v>
       </c>
       <c r="H34" t="n">
-        <v>19.9</v>
+        <v>20.65</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
       </c>
       <c r="J34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -2001,16 +2001,16 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>41850.8388888889</v>
+        <v>41850.8743055556</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>103.3</v>
+        <v>233.2</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -2019,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="H35" t="n">
-        <v>20.133</v>
+        <v>20.983</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -2033,16 +2033,16 @@
         <v>10</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>41850.8604166667</v>
+        <v>41850.8826388889</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -2051,13 +2051,13 @@
         <v>13</v>
       </c>
       <c r="H36" t="n">
-        <v>20.65</v>
+        <v>21.183</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
       </c>
       <c r="J36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -2065,16 +2065,16 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>41850.8743055556</v>
+        <v>41850.8861111111</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2</v>
+        <v>90.4</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -2083,13 +2083,13 @@
         <v>13</v>
       </c>
       <c r="H37" t="n">
-        <v>20.983</v>
+        <v>21.267</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
       </c>
       <c r="J37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -2097,16 +2097,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>41850.8826388889</v>
+        <v>41850.9097222222</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -2115,7 +2115,7 @@
         <v>13</v>
       </c>
       <c r="H38" t="n">
-        <v>21.183</v>
+        <v>21.833</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -2129,16 +2129,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>41850.8861111111</v>
+        <v>41850.9180555556</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E39" t="n">
-        <v>90.4</v>
+        <v>216.5</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -2147,13 +2147,13 @@
         <v>13</v>
       </c>
       <c r="H39" t="n">
-        <v>21.267</v>
+        <v>22.033</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
       </c>
       <c r="J39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -2161,16 +2161,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>41850.9097222222</v>
+        <v>41850.9423611111</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -2179,13 +2179,13 @@
         <v>13</v>
       </c>
       <c r="H40" t="n">
-        <v>21.833</v>
+        <v>22.617</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
       </c>
       <c r="J40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -2193,16 +2193,16 @@
         <v>10</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>41850.9180555556</v>
+        <v>41850.9493055556</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>216.5</v>
+        <v>55.7</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -2211,7 +2211,7 @@
         <v>13</v>
       </c>
       <c r="H41" t="n">
-        <v>22.033</v>
+        <v>22.783</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -2225,28 +2225,28 @@
         <v>10</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>41850.9423611111</v>
+        <v>41850.9534722222</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H42" t="n">
-        <v>22.617</v>
+        <v>22.883</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J42" t="n">
         <v>22</v>
@@ -2257,31 +2257,31 @@
         <v>10</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>41850.9493055556</v>
+        <v>41851.0375</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>55.7</v>
+        <v>121.6</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H43" t="n">
-        <v>22.783</v>
+        <v>0.9</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J43" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2289,16 +2289,16 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>41850.9534722222</v>
+        <v>41851.0520833333</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E44" t="n">
-        <v>8.1</v>
+        <v>3.3</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2307,13 +2307,13 @@
         <v>18</v>
       </c>
       <c r="H44" t="n">
-        <v>22.883</v>
+        <v>1.25</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
       </c>
       <c r="J44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2321,16 +2321,16 @@
         <v>10</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>41851.0375</v>
+        <v>41851.0583333333</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E45" t="n">
-        <v>121.6</v>
+        <v>243.2</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -2339,13 +2339,13 @@
         <v>18</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="I45" t="s">
         <v>19</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2353,16 +2353,16 @@
         <v>10</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>41851.0520833333</v>
+        <v>41851.0868055556</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="E46" t="n">
-        <v>3.3</v>
+        <v>10.6</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2371,13 +2371,13 @@
         <v>18</v>
       </c>
       <c r="H46" t="n">
-        <v>1.25</v>
+        <v>2.083</v>
       </c>
       <c r="I46" t="s">
         <v>19</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2385,16 +2385,16 @@
         <v>10</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>41851.0583333333</v>
+        <v>41851.2034722222</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E47" t="n">
-        <v>243.2</v>
+        <v>195.9</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -2403,13 +2403,13 @@
         <v>18</v>
       </c>
       <c r="H47" t="n">
-        <v>1.4</v>
+        <v>4.883</v>
       </c>
       <c r="I47" t="s">
         <v>19</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2417,16 +2417,16 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>41851.0868055556</v>
+        <v>41851.2493055556</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="E48" t="n">
-        <v>10.6</v>
+        <v>6.5</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -2435,13 +2435,13 @@
         <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>2.083</v>
+        <v>5.983</v>
       </c>
       <c r="I48" t="s">
         <v>19</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2449,16 +2449,16 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>41851.2034722222</v>
+        <v>41851.29375</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>195.9</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -2467,13 +2467,13 @@
         <v>18</v>
       </c>
       <c r="H49" t="n">
-        <v>4.883</v>
+        <v>7.05</v>
       </c>
       <c r="I49" t="s">
         <v>19</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2481,16 +2481,16 @@
         <v>10</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>41851.2493055556</v>
+        <v>41851.2972222222</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E50" t="n">
-        <v>6.5</v>
+        <v>11.1</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2499,13 +2499,13 @@
         <v>18</v>
       </c>
       <c r="H50" t="n">
-        <v>5.983</v>
+        <v>7.133</v>
       </c>
       <c r="I50" t="s">
         <v>19</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2513,16 +2513,16 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>41851.29375</v>
+        <v>41851.3222222222</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>56</v>
+        <v>151.6</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2531,7 +2531,7 @@
         <v>18</v>
       </c>
       <c r="H51" t="n">
-        <v>7.05</v>
+        <v>7.733</v>
       </c>
       <c r="I51" t="s">
         <v>19</v>
@@ -2545,16 +2545,16 @@
         <v>10</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>41851.2972222222</v>
+        <v>41851.3270833333</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="E52" t="n">
-        <v>11.1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -2563,7 +2563,7 @@
         <v>18</v>
       </c>
       <c r="H52" t="n">
-        <v>7.133</v>
+        <v>7.85</v>
       </c>
       <c r="I52" t="s">
         <v>19</v>
@@ -2577,31 +2577,31 @@
         <v>10</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>41851.3222222222</v>
+        <v>41851.4118055556</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="E53" t="n">
-        <v>151.6</v>
+        <v>210.2</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
         <v>18</v>
       </c>
       <c r="H53" t="n">
-        <v>7.733</v>
+        <v>9.883</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -2609,31 +2609,31 @@
         <v>10</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>41851.3270833333</v>
+        <v>41851.5069444444</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>11.8</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
         <v>18</v>
       </c>
       <c r="H54" t="n">
-        <v>7.85</v>
+        <v>12.167</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -2641,16 +2641,16 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>41851.4118055556</v>
+        <v>41851.5145833333</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="E55" t="n">
-        <v>210.2</v>
+        <v>198.6</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2659,13 +2659,13 @@
         <v>18</v>
       </c>
       <c r="H55" t="n">
-        <v>9.883</v>
+        <v>12.35</v>
       </c>
       <c r="I55" t="s">
         <v>20</v>
       </c>
       <c r="J55" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -2673,16 +2673,16 @@
         <v>10</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>41851.5069444444</v>
+        <v>41851.5444444444</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>11.8</v>
+        <v>1.2</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -2691,13 +2691,13 @@
         <v>18</v>
       </c>
       <c r="H56" t="n">
-        <v>12.167</v>
+        <v>13.067</v>
       </c>
       <c r="I56" t="s">
         <v>20</v>
       </c>
       <c r="J56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -2705,16 +2705,16 @@
         <v>10</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>41851.5145833333</v>
+        <v>41851.5486111111</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E57" t="n">
-        <v>198.6</v>
+        <v>179.2</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -2723,13 +2723,13 @@
         <v>18</v>
       </c>
       <c r="H57" t="n">
-        <v>12.35</v>
+        <v>13.167</v>
       </c>
       <c r="I57" t="s">
         <v>20</v>
       </c>
       <c r="J57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -2737,16 +2737,16 @@
         <v>10</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>41851.5444444444</v>
+        <v>41851.56875</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -2755,7 +2755,7 @@
         <v>18</v>
       </c>
       <c r="H58" t="n">
-        <v>13.067</v>
+        <v>13.65</v>
       </c>
       <c r="I58" t="s">
         <v>20</v>
@@ -2769,16 +2769,16 @@
         <v>10</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>41851.5486111111</v>
+        <v>41851.5722222222</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E59" t="n">
-        <v>179.2</v>
+        <v>279.4</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -2787,7 +2787,7 @@
         <v>18</v>
       </c>
       <c r="H59" t="n">
-        <v>13.167</v>
+        <v>13.733</v>
       </c>
       <c r="I59" t="s">
         <v>20</v>
@@ -2801,16 +2801,16 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>41851.56875</v>
+        <v>41851.5916666667</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4</v>
+        <v>8.9</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -2819,13 +2819,13 @@
         <v>18</v>
       </c>
       <c r="H60" t="n">
-        <v>13.65</v>
+        <v>14.2</v>
       </c>
       <c r="I60" t="s">
         <v>20</v>
       </c>
       <c r="J60" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -2833,16 +2833,16 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>41851.5722222222</v>
+        <v>41851.6013888889</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E61" t="n">
-        <v>279.4</v>
+        <v>103.3</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -2851,13 +2851,13 @@
         <v>18</v>
       </c>
       <c r="H61" t="n">
-        <v>13.733</v>
+        <v>14.433</v>
       </c>
       <c r="I61" t="s">
         <v>20</v>
       </c>
       <c r="J61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -2865,16 +2865,16 @@
         <v>10</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>41851.5916666667</v>
+        <v>41851.6354166667</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>8.9</v>
+        <v>3.2</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
@@ -2883,13 +2883,13 @@
         <v>18</v>
       </c>
       <c r="H62" t="n">
-        <v>14.2</v>
+        <v>15.25</v>
       </c>
       <c r="I62" t="s">
         <v>20</v>
       </c>
       <c r="J62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -2897,16 +2897,16 @@
         <v>10</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>41851.6013888889</v>
+        <v>41851.6388888889</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E63" t="n">
-        <v>103.3</v>
+        <v>143</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
@@ -2915,13 +2915,13 @@
         <v>18</v>
       </c>
       <c r="H63" t="n">
-        <v>14.433</v>
+        <v>15.333</v>
       </c>
       <c r="I63" t="s">
         <v>20</v>
       </c>
       <c r="J63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -2929,16 +2929,16 @@
         <v>10</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>41851.6354166667</v>
+        <v>41851.6576388889</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="E64" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
@@ -2947,7 +2947,7 @@
         <v>18</v>
       </c>
       <c r="H64" t="n">
-        <v>15.25</v>
+        <v>15.783</v>
       </c>
       <c r="I64" t="s">
         <v>20</v>
@@ -2961,16 +2961,16 @@
         <v>10</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>41851.6388888889</v>
+        <v>41851.7354166667</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E65" t="n">
-        <v>143</v>
+        <v>222.4</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
@@ -2979,13 +2979,13 @@
         <v>18</v>
       </c>
       <c r="H65" t="n">
-        <v>15.333</v>
+        <v>17.65</v>
       </c>
       <c r="I65" t="s">
         <v>20</v>
       </c>
       <c r="J65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -2993,16 +2993,16 @@
         <v>10</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>41851.6576388889</v>
+        <v>41851.8222222222</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
@@ -3011,13 +3011,13 @@
         <v>18</v>
       </c>
       <c r="H66" t="n">
-        <v>15.783</v>
+        <v>19.733</v>
       </c>
       <c r="I66" t="s">
         <v>20</v>
       </c>
       <c r="J66" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -3025,16 +3025,16 @@
         <v>10</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>41851.7354166667</v>
+        <v>41851.8263888889</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E67" t="n">
-        <v>222.4</v>
+        <v>81.8</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
@@ -3043,13 +3043,13 @@
         <v>18</v>
       </c>
       <c r="H67" t="n">
-        <v>17.65</v>
+        <v>19.833</v>
       </c>
       <c r="I67" t="s">
         <v>20</v>
       </c>
       <c r="J67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3057,13 +3057,13 @@
         <v>10</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>41851.8222222222</v>
+        <v>41851.8513888889</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -3075,13 +3075,13 @@
         <v>18</v>
       </c>
       <c r="H68" t="n">
-        <v>19.733</v>
+        <v>20.433</v>
       </c>
       <c r="I68" t="s">
         <v>20</v>
       </c>
       <c r="J68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -3089,16 +3089,16 @@
         <v>10</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>41851.8263888889</v>
+        <v>41851.8583333333</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>81.8</v>
+        <v>144.2</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
@@ -3107,13 +3107,13 @@
         <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>19.833</v>
+        <v>20.6</v>
       </c>
       <c r="I69" t="s">
         <v>20</v>
       </c>
       <c r="J69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -3121,16 +3121,16 @@
         <v>10</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>41851.8513888889</v>
+        <v>41851.8652777778</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
@@ -3139,7 +3139,7 @@
         <v>18</v>
       </c>
       <c r="H70" t="n">
-        <v>20.433</v>
+        <v>20.767</v>
       </c>
       <c r="I70" t="s">
         <v>20</v>
@@ -3153,16 +3153,16 @@
         <v>10</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>41851.8583333333</v>
+        <v>41851.8777777778</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="E71" t="n">
-        <v>144.2</v>
+        <v>200.1</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
@@ -3171,13 +3171,13 @@
         <v>18</v>
       </c>
       <c r="H71" t="n">
-        <v>20.6</v>
+        <v>21.067</v>
       </c>
       <c r="I71" t="s">
         <v>20</v>
       </c>
       <c r="J71" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
@@ -3185,16 +3185,16 @@
         <v>10</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>41851.8652777778</v>
+        <v>41851.9861111111</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -3203,13 +3203,13 @@
         <v>18</v>
       </c>
       <c r="H72" t="n">
-        <v>20.767</v>
+        <v>23.667</v>
       </c>
       <c r="I72" t="s">
         <v>20</v>
       </c>
       <c r="J72" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
@@ -3217,16 +3217,16 @@
         <v>10</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>41851.8777777778</v>
+        <v>41851.9895833333</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="E73" t="n">
-        <v>200.1</v>
+        <v>66.3</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
@@ -3235,13 +3235,13 @@
         <v>18</v>
       </c>
       <c r="H73" t="n">
-        <v>21.067</v>
+        <v>23.75</v>
       </c>
       <c r="I73" t="s">
         <v>20</v>
       </c>
       <c r="J73" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -3249,31 +3249,31 @@
         <v>10</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>41851.9861111111</v>
+        <v>41852.0166666667</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E74" t="n">
-        <v>3.4</v>
+        <v>15.1</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H74" t="n">
-        <v>23.667</v>
+        <v>0.4</v>
       </c>
       <c r="I74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J74" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3281,31 +3281,31 @@
         <v>10</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>41851.9895833333</v>
+        <v>41852.0381944444</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>66.3</v>
+        <v>43.6</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H75" t="n">
-        <v>23.75</v>
+        <v>0.917</v>
       </c>
       <c r="I75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J75" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3313,16 +3313,16 @@
         <v>10</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>41852.0166666667</v>
+        <v>41852.04375</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E76" t="n">
-        <v>15.1</v>
+        <v>11.3</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
@@ -3331,13 +3331,13 @@
         <v>21</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3345,16 +3345,16 @@
         <v>10</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>41852.0381944444</v>
+        <v>41852.1069444444</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
-        <v>43.6</v>
+        <v>30.3</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
@@ -3363,13 +3363,13 @@
         <v>21</v>
       </c>
       <c r="H77" t="n">
-        <v>0.917</v>
+        <v>2.567</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -3377,16 +3377,16 @@
         <v>10</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>41852.04375</v>
+        <v>41852.1131944444</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
@@ -3395,13 +3395,13 @@
         <v>21</v>
       </c>
       <c r="H78" t="n">
-        <v>1.05</v>
+        <v>2.717</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -3409,16 +3409,16 @@
         <v>10</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>41852.1069444444</v>
+        <v>41852.1166666667</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>30.3</v>
+        <v>177</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -3427,7 +3427,7 @@
         <v>21</v>
       </c>
       <c r="H79" t="n">
-        <v>2.567</v>
+        <v>2.8</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -3441,16 +3441,16 @@
         <v>10</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>41852.1131944444</v>
+        <v>41852.1201388889</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
@@ -3459,7 +3459,7 @@
         <v>21</v>
       </c>
       <c r="H80" t="n">
-        <v>2.717</v>
+        <v>2.883</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
@@ -3473,16 +3473,16 @@
         <v>10</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>41852.1166666667</v>
+        <v>41852.1361111111</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>177</v>
+        <v>138.5</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
@@ -3491,13 +3491,13 @@
         <v>21</v>
       </c>
       <c r="H81" t="n">
-        <v>2.8</v>
+        <v>3.267</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -3505,16 +3505,16 @@
         <v>10</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>41852.1201388889</v>
+        <v>41852.1430555556</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E82" t="n">
-        <v>15.4</v>
+        <v>3.7</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
@@ -3523,13 +3523,13 @@
         <v>21</v>
       </c>
       <c r="H82" t="n">
-        <v>2.883</v>
+        <v>3.433</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -3537,16 +3537,16 @@
         <v>10</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>41852.1361111111</v>
+        <v>41852.2055555556</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E83" t="n">
-        <v>138.5</v>
+        <v>65.2</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
@@ -3555,13 +3555,13 @@
         <v>21</v>
       </c>
       <c r="H83" t="n">
-        <v>3.267</v>
+        <v>4.933</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -3569,16 +3569,16 @@
         <v>10</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>41852.1430555556</v>
+        <v>41852.2256944444</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>3.7</v>
+        <v>7.9</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
@@ -3587,13 +3587,13 @@
         <v>21</v>
       </c>
       <c r="H84" t="n">
-        <v>3.433</v>
+        <v>5.417</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -3601,16 +3601,16 @@
         <v>10</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>41852.2055555556</v>
+        <v>41852.2305555556</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E85" t="n">
-        <v>65.2</v>
+        <v>148.8</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -3619,13 +3619,13 @@
         <v>21</v>
       </c>
       <c r="H85" t="n">
-        <v>4.933</v>
+        <v>5.533</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -3633,16 +3633,16 @@
         <v>10</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>41852.2256944444</v>
+        <v>41852.2479166667</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
-        <v>7.9</v>
+        <v>3.5</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
@@ -3651,7 +3651,7 @@
         <v>21</v>
       </c>
       <c r="H86" t="n">
-        <v>5.417</v>
+        <v>5.95</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -3665,31 +3665,31 @@
         <v>10</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>41852.2305555556</v>
+        <v>41852.2520833333</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E87" t="n">
-        <v>148.8</v>
+        <v>159.2</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G87" t="s">
         <v>21</v>
       </c>
       <c r="H87" t="n">
-        <v>5.533</v>
+        <v>6.05</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -3697,31 +3697,31 @@
         <v>10</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>41852.2479166667</v>
+        <v>41852.2881944444</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="E88" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G88" t="s">
         <v>21</v>
       </c>
       <c r="H88" t="n">
-        <v>5.95</v>
+        <v>6.917</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -3729,16 +3729,16 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>41852.2520833333</v>
+        <v>41852.4201388889</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E89" t="n">
-        <v>159.2</v>
+        <v>262.8</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
@@ -3747,76 +3747,12 @@
         <v>21</v>
       </c>
       <c r="H89" t="n">
-        <v>6.05</v>
+        <v>10.083</v>
       </c>
       <c r="I89" t="s">
         <v>23</v>
       </c>
       <c r="J89" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>41852.2881944444</v>
-      </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" t="n">
-        <v>190</v>
-      </c>
-      <c r="E90" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
-      </c>
-      <c r="H90" t="n">
-        <v>6.917</v>
-      </c>
-      <c r="I90" t="s">
-        <v>23</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>41852.4201388889</v>
-      </c>
-      <c r="C91" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" t="n">
-        <v>75</v>
-      </c>
-      <c r="E91" t="n">
-        <v>262.8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
-      <c r="H91" t="n">
-        <v>10.083</v>
-      </c>
-      <c r="I91" t="s">
-        <v>23</v>
-      </c>
-      <c r="J91" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3881,7 +3817,7 @@
     <col min="7" max="7" width="6.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="6.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="6.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="8.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="7.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="5.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="38.71" hidden="0" customWidth="1"/>
   </cols>
@@ -3938,13 +3874,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>22.983</v>
+        <v>1.1</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.65</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
         <v>10.317</v>
@@ -3956,7 +3892,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>41849</v>
+        <v>41850</v>
       </c>
       <c r="L2" t="s">
         <v>38</v>
@@ -4171,7 +4107,7 @@
     <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="7.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="3.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="3.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="4.71" hidden="0" customWidth="1"/>
@@ -4306,28 +4242,28 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>52.6</v>
+        <v>52.9</v>
       </c>
       <c r="I2" t="n">
-        <v>47.4</v>
+        <v>47.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>50</v>
@@ -4351,34 +4287,34 @@
         <v>46.2</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y2" t="n">
         <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>50</v>
+        <v>53.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>50</v>
+        <v>46.2</v>
       </c>
       <c r="AD2" t="s">
         <v>38</v>
@@ -4863,7 +4799,7 @@
     <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="7.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="3.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="3.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="4.71" hidden="0" customWidth="1"/>
@@ -5042,112 +4978,112 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>510</v>
+        <v>388</v>
       </c>
       <c r="I2" t="n">
+        <v>165</v>
+      </c>
+      <c r="J2" t="n">
+        <v>553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="P2" t="n">
         <v>170</v>
       </c>
-      <c r="J2" t="n">
-        <v>680</v>
-      </c>
-      <c r="K2" t="n">
-        <v>75</v>
-      </c>
-      <c r="L2" t="n">
-        <v>25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N2" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="P2" t="n">
-        <v>222</v>
-      </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R2" t="n">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="S2" t="n">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="T2" t="n">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="U2" t="n">
         <v>50</v>
       </c>
       <c r="V2" t="n">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="W2" t="n">
-        <v>97.8</v>
+        <v>92.4</v>
       </c>
       <c r="X2" t="n">
-        <v>2.2</v>
+        <v>7.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="Z2" t="n">
-        <v>49.1</v>
+        <v>45.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.9</v>
+        <v>54.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="AC2" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="AG2" t="n">
         <v>194</v>
       </c>
       <c r="AH2" t="n">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="AI2" t="n">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="AJ2" t="n">
-        <v>92.9</v>
+        <v>70.3</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.1</v>
+        <v>29.7</v>
       </c>
       <c r="AL2" t="n">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="AM2" t="n">
-        <v>57.1</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>42.9</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="s">
         <v>38</v>
@@ -5793,7 +5729,7 @@
     <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="7.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="7.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="7.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="7.71" hidden="0" customWidth="1"/>
@@ -5896,7 +5832,7 @@
         <v>98</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>5.433</v>
@@ -5908,10 +5844,10 @@
         <v>2.517</v>
       </c>
       <c r="M2" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="N2" t="n">
-        <v>4.067</v>
+        <v>5.433</v>
       </c>
       <c r="O2" t="n">
         <v>67</v>
@@ -5920,10 +5856,10 @@
         <v>6.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="R2" t="n">
-        <v>5.433</v>
+        <v>9.95</v>
       </c>
       <c r="S2" t="s">
         <v>38</v>
@@ -6221,7 +6157,7 @@
     <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="7.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="8.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
@@ -6304,34 +6240,34 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>41849</v>
+        <v>41850</v>
       </c>
       <c r="G2" t="n">
-        <v>1.017</v>
+        <v>3.933</v>
       </c>
       <c r="H2" t="n">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1</v>
+        <v>4.217</v>
       </c>
       <c r="J2" t="n">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="K2" t="n">
-        <v>3.933</v>
+        <v>4.617</v>
       </c>
       <c r="L2" t="n">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N2" t="n">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="O2" t="n">
         <v>10.067</v>
@@ -6751,7 +6687,7 @@
     <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="6.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="18.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="16.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="5.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="5.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="7.71" hidden="0" customWidth="1"/>
@@ -7040,19 +6976,19 @@
         <v>141</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>41849</v>
+        <v>41850</v>
       </c>
       <c r="G4" t="s">
         <v>172</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>50</v>
@@ -7061,19 +6997,19 @@
         <v>50</v>
       </c>
       <c r="M4" t="n">
-        <v>755</v>
+        <v>633</v>
       </c>
       <c r="N4" t="n">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="O4" t="n">
-        <v>1434</v>
+        <v>1307</v>
       </c>
       <c r="P4" t="n">
-        <v>52.6</v>
+        <v>48.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.4</v>
+        <v>51.6</v>
       </c>
       <c r="R4" t="s">
         <v>173</v>
